--- a/figures_and_tables/table_performance_CS.xlsx
+++ b/figures_and_tables/table_performance_CS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.28 ± 0.06</t>
+          <t>0.26 ± 0.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.15 ± 3.64</t>
+          <t>52.61 ± 4.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.13 ± 6.34</t>
+          <t>68.58 ± 6.96</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.25 ± 0.04</t>
+          <t>0.30 ± 0.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.50 ± 4.04</t>
+          <t>51.01 ± 4.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.90 ± 7.03</t>
+          <t>66.49 ± 6.18</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.23 ± 0.05</t>
+          <t>0.13 ± 0.03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.96 ± 3.13</t>
+          <t>57.22 ± 5.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68.45 ± 5.74</t>
+          <t>74.60 ± 8.76</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.12 ± 0.10</t>
+          <t>0.32 ± 0.07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.86 ± 5.58</t>
+          <t>50.17 ± 4.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.52 ± 8.78</t>
+          <t>65.40 ± 6.39</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.30 ± 0.07</t>
+          <t>0.31 ± 0.05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50.53 ± 3.83</t>
+          <t>50.81 ± 4.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.32 ± 6.54</t>
+          <t>66.23 ± 6.46</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.20 ± 0.05</t>
+          <t>0.25 ± 0.05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54.28 ± 4.82</t>
+          <t>52.71 ± 3.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.23 ± 8.28</t>
+          <t>68.68 ± 5.82</t>
         </is>
       </c>
     </row>
@@ -630,184 +630,184 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.21 ± 0.12</t>
+          <t>0.32 ± 0.09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>53.49 ± 3.43</t>
+          <t>50.12 ± 3.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.09 ± 5.55</t>
+          <t>65.33 ± 6.07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.29 ± 0.07</t>
+          <t>0.01 ± 0.18</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.71 ± 3.29</t>
+          <t>61.03 ± 10.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>65.55 ± 5.87</t>
+          <t>79.58 ± 14.02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.25 ± 0.05</t>
+          <t>0.33 ± 0.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52.27 ± 4.00</t>
+          <t>50.11 ± 4.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.60 ± 6.95</t>
+          <t>65.32 ± 7.23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.26 ± 0.05</t>
+          <t>0.20 ± 0.05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52.06 ± 3.46</t>
+          <t>54.59 ± 5.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67.30 ± 6.21</t>
+          <t>71.15 ± 7.86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.18 ± 0.09</t>
+          <t>0.30 ± 0.04</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54.77 ± 5.42</t>
+          <t>51.16 ± 4.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70.86 ± 8.70</t>
+          <t>66.69 ± 6.99</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.30 ± 0.06</t>
+          <t>0.27 ± 0.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50.48 ± 3.51</t>
+          <t>52.17 ± 4.96</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65.26 ± 6.22</t>
+          <t>68.02 ± 7.49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.21 ± 0.06</t>
+          <t>0.25 ± 0.07</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53.75 ± 5.11</t>
+          <t>52.81 ± 5.08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.56 ± 8.62</t>
+          <t>68.84 ± 7.52</t>
         </is>
       </c>
     </row>
@@ -819,400 +819,1048 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.23 ± 0.11</t>
+          <t>0.28 ± 0.09</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>52.80 ± 2.17</t>
+          <t>51.58 ± 3.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.19 ± 3.80</t>
+          <t>67.21 ± 5.50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.70 ± 0.05</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.40 ± 4.27</t>
+          <t>51.18 ± 4.43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>43.22 ± 6.52</t>
+          <t>66.72 ± 6.77</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.67 ± 0.05</t>
+          <t>0.12 ± 0.04</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>34.84 ± 3.82</t>
+          <t>57.55 ± 5.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>45.05 ± 5.83</t>
+          <t>75.02 ± 8.31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.23 ± 0.05</t>
+          <t>0.31 ± 0.06</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>52.90 ± 3.14</t>
+          <t>50.55 ± 4.28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68.37 ± 5.74</t>
+          <t>65.90 ± 6.61</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.61 ± 0.06</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>37.94 ± 4.08</t>
+          <t>51.05 ± 4.60</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49.06 ± 6.26</t>
+          <t>66.55 ± 6.97</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.69 ± 0.05</t>
+          <t>0.26 ± 0.04</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33.56 ± 4.12</t>
+          <t>52.44 ± 4.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>43.43 ± 6.38</t>
+          <t>68.35 ± 6.46</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.27 ± 0.10</t>
+          <t>0.32 ± 0.08</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>51.54 ± 4.60</t>
+          <t>50.23 ± 3.71</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>66.63 ± 7.41</t>
+          <t>65.47 ± 5.81</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.65 ± 0.04</t>
+          <t>0.21 ± 0.08</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>35.74 ± 2.33</t>
+          <t>54.37 ± 6.54</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>46.20 ± 4.13</t>
+          <t>70.89 ± 9.32</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.70 ± 0.05</t>
+          <t>0.32 ± 0.03</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>33.40 ± 4.13</t>
+          <t>50.30 ± 4.21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>43.22 ± 6.35</t>
+          <t>65.57 ± 6.44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.65 ± 0.05</t>
+          <t>0.21 ± 0.04</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35.95 ± 4.37</t>
+          <t>54.32 ± 5.54</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>46.51 ± 6.65</t>
+          <t>70.82 ± 8.10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.26 ± 0.05</t>
+          <t>0.28 ± 0.07</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>52.01 ± 3.49</t>
+          <t>51.88 ± 5.11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>67.24 ± 6.25</t>
+          <t>67.65 ± 7.66</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.57 ± 0.12</t>
+          <t>0.27 ± 0.07</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>39.41 ± 6.14</t>
+          <t>51.99 ± 3.57</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>51.02 ± 9.13</t>
+          <t>67.76 ± 5.62</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.67 ± 0.05</t>
+          <t>0.27 ± 0.06</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>34.86 ± 4.18</t>
+          <t>52.29 ± 4.63</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>45.11 ± 6.50</t>
+          <t>68.16 ± 6.96</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.22 ± 0.06</t>
+          <t>0.71 ± 0.10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>53.60 ± 5.11</t>
+          <t>32.42 ± 4.92</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>69.36 ± 8.61</t>
+          <t>42.27 ± 6.83</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BaggedDT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>33.20 ± 4.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>43.28 ± 6.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BayesianNN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>35.11 ± 6.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>45.77 ± 8.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.73 ± 0.07</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>31.50 ± 4.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>41.07 ± 5.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GBDT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.07</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>34.16 ± 4.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>44.54 ± 6.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.26 ± 0.03</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>52.51 ± 4.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.44 ± 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>32.91 ± 4.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>42.91 ± 6.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.43 ± 0.33</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>44.03 ± 11.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>57.36 ± 14.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.71 ± 0.06</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>32.90 ± 4.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>42.90 ± 5.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.27 ± 0.09</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>52.05 ± 3.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.82 ± 5.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.09</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>33.86 ± 4.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>44.13 ± 6.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.64 ± 0.09</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>36.46 ± 3.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>47.50 ± 5.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Conf3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>▸ Average</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.60 ± 0.10</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>37.59 ± 5.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49.00 ± 7.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Conf4</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.10</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>32.98 ± 4.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>42.98 ± 6.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BaggedDT</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>33.51 ± 4.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.69 ± 6.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BayesianNN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.12</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>35.10 ± 6.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>45.77 ± 8.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>33.02 ± 4.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43.06 ± 6.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GBDT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.07</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>34.44 ± 4.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>44.91 ± 6.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.27 ± 0.04</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>52.28 ± 4.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>68.14 ± 6.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LightGBM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>33.53 ± 4.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>43.72 ± 6.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.55 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>40.80 ± 6.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>53.23 ± 9.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.05</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>33.81 ± 3.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>44.09 ± 5.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.25 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>52.69 ± 2.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>68.63 ± 4.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.09</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>34.16 ± 4.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>44.53 ± 6.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.66 ± 0.03</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>35.02 ± 3.26</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>45.30 ± 5.38</t>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.65 ± 0.11</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>35.48 ± 3.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>46.23 ± 5.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>▸ Average</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.60 ± 0.09</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>37.65 ± 4.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>49.08 ± 6.60</t>
         </is>
       </c>
     </row>

--- a/figures_and_tables/table_performance_CS.xlsx
+++ b/figures_and_tables/table_performance_CS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>RMSE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>%RMSE</t>
         </is>
@@ -478,10 +483,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.18 ± 1.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>52.61 ± 4.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>68.58 ± 6.96</t>
         </is>
@@ -505,10 +515,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.48 ± 1.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>51.01 ± 4.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>66.49 ± 6.18</t>
         </is>
@@ -532,10 +547,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.96 ± 3.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>57.22 ± 5.97</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>74.60 ± 8.76</t>
         </is>
@@ -559,10 +579,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.51 ± 1.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>50.17 ± 4.11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>65.40 ± 6.39</t>
         </is>
@@ -586,10 +611,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.42 ± 1.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>50.81 ± 4.22</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>66.23 ± 6.46</t>
         </is>
@@ -613,10 +643,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.20 ± 2.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>52.71 ± 3.98</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>68.68 ± 5.82</t>
         </is>
@@ -640,10 +675,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.36 ± 1.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>50.12 ± 3.98</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>65.33 ± 6.07</t>
         </is>
@@ -667,10 +707,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.69 ± 2.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>61.03 ± 10.22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>79.58 ± 14.02</t>
         </is>
@@ -694,10 +739,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>2.53 ± 1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>50.11 ± 4.86</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>65.32 ± 7.23</t>
         </is>
@@ -721,10 +771,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>3.04 ± 2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>54.59 ± 5.39</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>71.15 ± 7.86</t>
         </is>
@@ -748,10 +803,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.65 ± 1.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>51.16 ± 4.62</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>66.69 ± 6.99</t>
         </is>
@@ -775,10 +835,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.26 ± 1.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>52.17 ± 4.96</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>68.02 ± 7.49</t>
         </is>
@@ -802,10 +867,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2.77 ± 2.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>52.81 ± 5.08</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>68.84 ± 7.52</t>
         </is>
@@ -814,27 +884,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.28 ± 0.09</t>
+          <t>0.33 ± 0.07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>51.58 ± 3.58</t>
+          <t>2.39 ± 1.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.21 ± 5.50</t>
+          <t>49.91 ± 4.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>65.06 ± 6.71</t>
         </is>
       </c>
     </row>
@@ -846,22 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.30 ± 0.06</t>
+          <t>0.28 ± 0.09</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>51.18 ± 4.43</t>
+          <t>2.35 ± 1.66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>66.72 ± 6.77</t>
+          <t>51.58 ± 3.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>67.21 ± 5.50</t>
         </is>
       </c>
     </row>
@@ -873,22 +953,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.12 ± 0.04</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>57.55 ± 5.63</t>
+          <t>2.47 ± 1.72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.02 ± 8.31</t>
+          <t>51.18 ± 4.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>66.72 ± 6.77</t>
         </is>
       </c>
     </row>
@@ -900,22 +985,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.31 ± 0.06</t>
+          <t>0.12 ± 0.04</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50.55 ± 4.28</t>
+          <t>3.81 ± 2.97</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>65.90 ± 6.61</t>
+          <t>57.55 ± 5.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>75.02 ± 8.31</t>
         </is>
       </c>
     </row>
@@ -927,22 +1017,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.30 ± 0.06</t>
+          <t>0.31 ± 0.06</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>51.05 ± 4.60</t>
+          <t>2.73 ± 2.09</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>66.55 ± 6.97</t>
+          <t>50.55 ± 4.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>65.90 ± 6.61</t>
         </is>
       </c>
     </row>
@@ -954,22 +1049,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.26 ± 0.04</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.44 ± 4.31</t>
+          <t>2.38 ± 1.72</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>68.35 ± 6.46</t>
+          <t>51.05 ± 4.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>66.55 ± 6.97</t>
         </is>
       </c>
     </row>
@@ -981,22 +1081,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.32 ± 0.08</t>
+          <t>0.26 ± 0.04</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>50.23 ± 3.71</t>
+          <t>3.21 ± 2.85</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>65.47 ± 5.81</t>
+          <t>52.44 ± 4.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>68.35 ± 6.46</t>
         </is>
       </c>
     </row>
@@ -1008,22 +1113,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.21 ± 0.08</t>
+          <t>0.32 ± 0.08</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>54.37 ± 6.54</t>
+          <t>2.39 ± 1.64</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>70.89 ± 9.32</t>
+          <t>50.23 ± 3.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>65.47 ± 5.81</t>
         </is>
       </c>
     </row>
@@ -1035,22 +1145,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.32 ± 0.03</t>
+          <t>0.21 ± 0.08</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50.30 ± 4.21</t>
+          <t>3.60 ± 3.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>65.57 ± 6.44</t>
+          <t>54.37 ± 6.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>70.89 ± 9.32</t>
         </is>
       </c>
     </row>
@@ -1062,22 +1177,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.21 ± 0.04</t>
+          <t>0.32 ± 0.03</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>54.32 ± 5.54</t>
+          <t>2.63 ± 1.94</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>70.82 ± 8.10</t>
+          <t>50.30 ± 4.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>65.57 ± 6.44</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1209,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.28 ± 0.07</t>
+          <t>0.21 ± 0.04</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>51.88 ± 5.11</t>
+          <t>2.71 ± 2.13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>67.65 ± 7.66</t>
+          <t>54.32 ± 5.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>70.82 ± 8.10</t>
         </is>
       </c>
     </row>
@@ -1116,22 +1241,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.27 ± 0.07</t>
+          <t>0.28 ± 0.07</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>51.99 ± 3.57</t>
+          <t>2.64 ± 1.81</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>67.76 ± 5.62</t>
+          <t>51.88 ± 5.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>67.65 ± 7.66</t>
         </is>
       </c>
     </row>
@@ -1143,76 +1273,91 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.27 ± 0.06</t>
+          <t>0.27 ± 0.07</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>52.29 ± 4.63</t>
+          <t>2.30 ± 1.65</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>68.16 ± 6.96</t>
+          <t>51.99 ± 3.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>67.76 ± 5.62</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.71 ± 0.10</t>
+          <t>0.27 ± 0.06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32.42 ± 4.92</t>
+          <t>2.77 ± 2.14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>42.27 ± 6.83</t>
+          <t>52.29 ± 4.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>68.16 ± 6.96</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.70 ± 0.08</t>
+          <t>0.33 ± 0.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>33.20 ± 4.27</t>
+          <t>2.52 ± 1.82</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>43.28 ± 6.11</t>
+          <t>49.84 ± 4.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>64.97 ± 6.22</t>
         </is>
       </c>
     </row>
@@ -1224,22 +1369,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.66 ± 0.13</t>
+          <t>0.71 ± 0.10</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>35.11 ± 6.50</t>
+          <t>0.80 ± 0.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>45.77 ± 8.89</t>
+          <t>32.42 ± 4.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>42.27 ± 6.83</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1401,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.73 ± 0.07</t>
+          <t>0.70 ± 0.08</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>31.50 ± 4.10</t>
+          <t>0.66 ± 0.27</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>41.07 ± 5.89</t>
+          <t>33.20 ± 4.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>43.28 ± 6.11</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1433,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.68 ± 0.07</t>
+          <t>0.66 ± 0.13</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>34.16 ± 4.46</t>
+          <t>0.73 ± 0.12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>44.54 ± 6.43</t>
+          <t>35.11 ± 6.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>45.77 ± 8.89</t>
         </is>
       </c>
     </row>
@@ -1305,22 +1465,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.26 ± 0.03</t>
+          <t>0.73 ± 0.07</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>52.51 ± 4.25</t>
+          <t>0.94 ± 0.61</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>68.44 ± 6.28</t>
+          <t>31.50 ± 4.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>41.07 ± 5.89</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1497,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.70 ± 0.08</t>
+          <t>0.68 ± 0.07</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>32.91 ± 4.67</t>
+          <t>1.18 ± 0.69</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>42.91 ± 6.60</t>
+          <t>34.16 ± 4.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>44.54 ± 6.43</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1529,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.43 ± 0.33</t>
+          <t>0.26 ± 0.03</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>44.03 ± 11.08</t>
+          <t>3.34 ± 2.95</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>57.36 ± 14.53</t>
+          <t>52.51 ± 4.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>68.44 ± 6.28</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1561,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.71 ± 0.06</t>
+          <t>0.70 ± 0.08</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>32.90 ± 4.01</t>
+          <t>0.73 ± 0.37</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>42.90 ± 5.84</t>
+          <t>32.91 ± 4.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>42.91 ± 6.60</t>
         </is>
       </c>
     </row>
@@ -1413,22 +1593,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.27 ± 0.09</t>
+          <t>0.43 ± 0.33</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>52.05 ± 3.77</t>
+          <t>0.97 ± 0.38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>67.82 ± 5.53</t>
+          <t>44.03 ± 11.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>57.36 ± 14.53</t>
         </is>
       </c>
     </row>
@@ -1440,22 +1625,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.68 ± 0.09</t>
+          <t>0.71 ± 0.06</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>33.86 ± 4.80</t>
+          <t>1.26 ± 0.86</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>44.13 ± 6.70</t>
+          <t>32.90 ± 4.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>42.90 ± 5.84</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1657,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.64 ± 0.09</t>
+          <t>0.27 ± 0.09</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>36.46 ± 3.70</t>
+          <t>2.63 ± 2.37</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>47.50 ± 5.04</t>
+          <t>52.05 ± 3.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>67.82 ± 5.53</t>
         </is>
       </c>
     </row>
@@ -1494,103 +1689,123 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.60 ± 0.10</t>
+          <t>0.68 ± 0.09</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>37.59 ± 5.04</t>
+          <t>0.75 ± 0.31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>49.00 ± 7.06</t>
+          <t>33.86 ± 4.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>44.13 ± 6.70</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.70 ± 0.10</t>
+          <t>0.64 ± 0.09</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>32.98 ± 4.47</t>
+          <t>0.67 ± 0.27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>42.98 ± 6.24</t>
+          <t>36.46 ± 3.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>47.50 ± 5.04</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.69 ± 0.08</t>
+          <t>0.60 ± 0.10</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>33.51 ± 4.50</t>
+          <t>1.22 ± 0.80</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>43.69 ± 6.38</t>
+          <t>37.59 ± 5.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>49.00 ± 7.06</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.66 ± 0.12</t>
+          <t>0.73 ± 0.07</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>35.10 ± 6.49</t>
+          <t>0.92 ± 0.56</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>45.77 ± 8.90</t>
+          <t>31.66 ± 4.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>41.28 ± 6.20</t>
         </is>
       </c>
     </row>
@@ -1602,22 +1817,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.70 ± 0.08</t>
+          <t>0.70 ± 0.10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>33.02 ± 4.41</t>
+          <t>0.78 ± 0.39</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>43.06 ± 6.29</t>
+          <t>32.98 ± 4.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>42.98 ± 6.24</t>
         </is>
       </c>
     </row>
@@ -1629,22 +1849,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.68 ± 0.07</t>
+          <t>0.69 ± 0.08</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>34.44 ± 4.54</t>
+          <t>0.66 ± 0.26</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>44.91 ± 6.55</t>
+          <t>33.51 ± 4.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>43.69 ± 6.38</t>
         </is>
       </c>
     </row>
@@ -1656,22 +1881,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.27 ± 0.04</t>
+          <t>0.66 ± 0.12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>52.28 ± 4.28</t>
+          <t>0.79 ± 0.36</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>68.14 ± 6.43</t>
+          <t>35.10 ± 6.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>45.77 ± 8.90</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1913,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.69 ± 0.08</t>
+          <t>0.70 ± 0.08</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>33.53 ± 4.66</t>
+          <t>0.77 ± 0.31</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>43.72 ± 6.59</t>
+          <t>33.02 ± 4.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>43.06 ± 6.29</t>
         </is>
       </c>
     </row>
@@ -1710,22 +1945,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.55 ± 0.13</t>
+          <t>0.68 ± 0.07</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>40.80 ± 6.94</t>
+          <t>1.19 ± 0.70</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>53.23 ± 9.83</t>
+          <t>34.44 ± 4.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>44.91 ± 6.55</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1977,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.69 ± 0.05</t>
+          <t>0.27 ± 0.04</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>33.81 ± 3.91</t>
+          <t>3.21 ± 2.84</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>44.09 ± 5.79</t>
+          <t>52.28 ± 4.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>68.14 ± 6.43</t>
         </is>
       </c>
     </row>
@@ -1764,22 +2009,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.25 ± 0.13</t>
+          <t>0.69 ± 0.08</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>52.69 ± 2.87</t>
+          <t>0.72 ± 0.36</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>68.63 ± 4.16</t>
+          <t>33.53 ± 4.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>43.72 ± 6.59</t>
         </is>
       </c>
     </row>
@@ -1791,22 +2041,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.68 ± 0.09</t>
+          <t>0.55 ± 0.13</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>34.16 ± 4.74</t>
+          <t>0.61 ± 0.23</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>44.53 ± 6.70</t>
+          <t>40.80 ± 6.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>53.23 ± 9.83</t>
         </is>
       </c>
     </row>
@@ -1818,22 +2073,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.65 ± 0.11</t>
+          <t>0.69 ± 0.05</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>35.48 ± 3.88</t>
+          <t>1.43 ± 1.02</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>46.23 ± 5.39</t>
+          <t>33.81 ± 3.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>44.09 ± 5.79</t>
         </is>
       </c>
     </row>
@@ -1845,22 +2105,155 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.25 ± 0.13</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.10 ± 1.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>52.69 ± 2.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>68.63 ± 4.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.09</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>34.16 ± 4.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>44.53 ± 6.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.65 ± 0.11</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67 ± 0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.48 ± 3.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>46.23 ± 5.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>▸ Average</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.60 ± 0.09</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.14 ± 0.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>37.65 ± 4.64</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>49.08 ± 6.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>▸ Ensemble</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.72 ± 0.07</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.16 ± 4.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>41.94 ± 6.01</t>
         </is>
       </c>
     </row>

--- a/figures_and_tables/table_performance_CS.xlsx
+++ b/figures_and_tables/table_performance_CS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R2 (val)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>MAPE (val)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RMSE (val)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>%RMSE</t>
+          <t>%RMSE (val)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>R2 (train)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MAPE (train)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE (train)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>%RMSE (train)</t>
         </is>
       </c>
     </row>
@@ -478,22 +498,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.26 ± 0.09</t>
+          <t>0.32 ± 0.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.18 ± 1.51</t>
+          <t>2.50 ± 1.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>52.61 ± 4.59</t>
+          <t>49.82 ± 11.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68.58 ± 6.96</t>
+          <t>65.08 ± 15.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.46 ± 0.26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>18.52 ± 1.32</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>24.10 ± 1.76</t>
         </is>
       </c>
     </row>
@@ -510,22 +550,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.30 ± 0.08</t>
+          <t>0.31 ± 0.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.48 ± 1.74</t>
+          <t>2.51 ± 1.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51.01 ± 4.04</t>
+          <t>50.11 ± 9.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>66.49 ± 6.18</t>
+          <t>65.44 ± 13.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.03 ± 0.18</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>19.73 ± 0.76</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>25.69 ± 1.29</t>
         </is>
       </c>
     </row>
@@ -542,22 +602,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.13 ± 0.03</t>
+          <t>0.11 ± 0.10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.96 ± 3.26</t>
+          <t>3.95 ± 3.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>57.22 ± 5.97</t>
+          <t>57.06 ± 12.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>74.60 ± 8.76</t>
+          <t>74.58 ± 18.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.19 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3.84 ± 0.85</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>55.36 ± 3.64</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>72.01 ± 3.75</t>
         </is>
       </c>
     </row>
@@ -579,17 +659,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.51 ± 1.88</t>
+          <t>2.60 ± 1.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50.17 ± 4.11</t>
+          <t>49.64 ± 9.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65.40 ± 6.39</t>
+          <t>64.86 ± 14.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.82 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.43 ± 0.28</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>26.26 ± 1.27</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>34.18 ± 1.66</t>
         </is>
       </c>
     </row>
@@ -606,22 +706,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.31 ± 0.05</t>
+          <t>0.29 ± 0.14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.42 ± 1.76</t>
+          <t>2.14 ± 0.94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.81 ± 4.22</t>
+          <t>50.49 ± 10.45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>66.23 ± 6.46</t>
+          <t>66.00 ± 15.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.75 ± 0.18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16.07 ± 0.50</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>20.92 ± 0.64</t>
         </is>
       </c>
     </row>
@@ -638,22 +758,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.25 ± 0.05</t>
+          <t>0.16 ± 0.21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.20 ± 2.73</t>
+          <t>3.88 ± 3.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52.71 ± 3.98</t>
+          <t>53.86 ± 6.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>68.68 ± 5.82</t>
+          <t>70.33 ± 10.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.41 ± 0.05</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2.92 ± 0.72</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>47.01 ± 1.27</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>61.17 ± 0.89</t>
         </is>
       </c>
     </row>
@@ -670,22 +810,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.32 ± 0.09</t>
+          <t>0.31 ± 0.11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.36 ± 1.63</t>
+          <t>1.74 ± 0.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50.12 ± 3.98</t>
+          <t>49.70 ± 9.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>65.33 ± 6.07</t>
+          <t>64.87 ± 13.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.83 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.16</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>25.18 ± 1.33</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>32.78 ± 1.56</t>
         </is>
       </c>
     </row>
@@ -702,22 +862,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.01 ± 0.18</t>
+          <t>0.07 ± 0.21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.69 ± 2.98</t>
+          <t>3.82 ± 4.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>61.03 ± 10.22</t>
+          <t>58.36 ± 14.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>79.58 ± 14.02</t>
+          <t>76.36 ± 21.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.18 ± 0.03</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3.57 ± 0.77</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>55.66 ± 3.31</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>72.42 ± 3.71</t>
         </is>
       </c>
     </row>
@@ -734,22 +914,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.33 ± 0.07</t>
+          <t>0.34 ± 0.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.53 ± 1.85</t>
+          <t>2.65 ± 1.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50.11 ± 4.86</t>
+          <t>49.24 ± 10.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.32 ± 7.23</t>
+          <t>64.34 ± 15.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.74 ± 0.23</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>33.95 ± 1.29</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>44.19 ± 1.59</t>
         </is>
       </c>
     </row>
@@ -766,22 +966,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.20 ± 0.05</t>
+          <t>0.08 ± 0.25</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.04 ± 2.59</t>
+          <t>3.46 ± 3.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>54.59 ± 5.39</t>
+          <t>56.50 ± 6.91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71.15 ± 7.86</t>
+          <t>73.76 ± 11.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.48 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2.43 ± 0.76</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>44.19 ± 1.39</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>57.51 ± 1.30</t>
         </is>
       </c>
     </row>
@@ -798,22 +1018,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.30 ± 0.04</t>
+          <t>0.33 ± 0.08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.65 ± 1.91</t>
+          <t>2.38 ± 1.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>51.16 ± 4.62</t>
+          <t>49.42 ± 9.83</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.69 ± 6.99</t>
+          <t>64.53 ± 14.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.76 ± 0.03</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1.57 ± 0.30</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>30.29 ± 2.63</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>39.38 ± 2.56</t>
         </is>
       </c>
     </row>
@@ -830,22 +1070,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.27 ± 0.06</t>
+          <t>0.30 ± 0.10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.26 ± 1.69</t>
+          <t>2.40 ± 1.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>52.17 ± 4.96</t>
+          <t>50.03 ± 9.24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>68.02 ± 7.49</t>
+          <t>65.33 ± 13.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.16 ± 0.05</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3.15 ± 0.56</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4.11 ± 0.86</t>
         </is>
       </c>
     </row>
@@ -862,22 +1122,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.25 ± 0.07</t>
+          <t>0.24 ± 0.13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.77 ± 2.13</t>
+          <t>2.84 ± 2.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>52.81 ± 5.08</t>
+          <t>52.02 ± 10.14</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>68.84 ± 7.52</t>
+          <t>67.96 ± 14.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.67 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.82 ± 0.39</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31.28 ± 1.61</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>40.71 ± 1.80</t>
         </is>
       </c>
     </row>
@@ -894,22 +1174,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.33 ± 0.07</t>
+          <t>0.35 ± 0.08</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.39 ± 1.72</t>
+          <t>2.36 ± 1.39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>49.91 ± 4.40</t>
+          <t>48.63 ± 10.21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65.06 ± 6.71</t>
+          <t>63.51 ± 14.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.84 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.38 ± 0.21</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>24.37 ± 1.04</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>31.72 ± 1.31</t>
         </is>
       </c>
     </row>
@@ -926,22 +1226,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.28 ± 0.09</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.35 ± 1.66</t>
+          <t>2.39 ± 1.43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>51.58 ± 3.58</t>
+          <t>50.36 ± 10.53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>67.21 ± 5.50</t>
+          <t>65.80 ± 15.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.21 ± 0.27</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>16.24 ± 0.82</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>21.15 ± 1.13</t>
         </is>
       </c>
     </row>
@@ -958,22 +1278,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.30 ± 0.06</t>
+          <t>0.31 ± 0.09</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.47 ± 1.72</t>
+          <t>2.64 ± 1.86</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>51.18 ± 4.43</t>
+          <t>49.84 ± 8.97</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66.72 ± 6.77</t>
+          <t>65.07 ± 13.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.02 ± 0.13</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>19.55 ± 0.62</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>25.45 ± 1.01</t>
         </is>
       </c>
     </row>
@@ -990,22 +1330,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.12 ± 0.04</t>
+          <t>0.12 ± 0.10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.81 ± 2.97</t>
+          <t>3.72 ± 3.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>57.55 ± 5.63</t>
+          <t>56.91 ± 13.32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>75.02 ± 8.31</t>
+          <t>74.41 ± 19.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.20 ± 0.05</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3.74 ± 0.80</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>54.99 ± 3.85</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>71.52 ± 3.89</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1382,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.31 ± 0.06</t>
+          <t>0.28 ± 0.14</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.73 ± 2.09</t>
+          <t>2.48 ± 1.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>50.55 ± 4.28</t>
+          <t>50.87 ± 9.38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>65.90 ± 6.61</t>
+          <t>66.44 ± 13.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.12 ± 0.21</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>19.03 ± 0.57</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>24.77 ± 0.85</t>
         </is>
       </c>
     </row>
@@ -1054,22 +1434,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.30 ± 0.06</t>
+          <t>0.28 ± 0.12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.38 ± 1.72</t>
+          <t>2.27 ± 1.18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>51.05 ± 4.60</t>
+          <t>50.91 ± 9.97</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>66.55 ± 6.97</t>
+          <t>66.51 ± 14.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.93 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.01 ± 0.20</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15.76 ± 0.83</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20.50 ± 0.90</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1486,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.26 ± 0.04</t>
+          <t>0.17 ± 0.23</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.21 ± 2.85</t>
+          <t>3.41 ± 3.15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>52.44 ± 4.31</t>
+          <t>53.46 ± 5.99</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68.35 ± 6.46</t>
+          <t>69.79 ± 9.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2.55 ± 0.64</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>45.99 ± 1.17</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>59.85 ± 0.56</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1538,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.32 ± 0.08</t>
+          <t>0.33 ± 0.06</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.39 ± 1.64</t>
+          <t>1.78 ± 0.62</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50.23 ± 3.71</t>
+          <t>49.37 ± 9.44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>65.47 ± 5.81</t>
+          <t>64.47 ± 13.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.85 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.96 ± 0.11</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>24.13 ± 1.05</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>31.40 ± 0.90</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1590,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.21 ± 0.08</t>
+          <t>0.06 ± 0.30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.60 ± 3.54</t>
+          <t>4.26 ± 3.99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>54.37 ± 6.54</t>
+          <t>58.38 ± 15.62</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>70.89 ± 9.32</t>
+          <t>76.39 ± 21.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.19 ± 0.08</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>4.00 ± 0.94</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>55.38 ± 5.39</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>71.99 ± 5.78</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1642,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.32 ± 0.03</t>
+          <t>0.32 ± 0.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.63 ± 1.94</t>
+          <t>2.81 ± 1.99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>50.30 ± 4.21</t>
+          <t>49.86 ± 10.48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>65.57 ± 6.44</t>
+          <t>65.16 ± 15.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1.86 ± 0.25</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>34.65 ± 1.31</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>45.10 ± 1.42</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1694,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.21 ± 0.04</t>
+          <t>0.13 ± 0.19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.71 ± 2.13</t>
+          <t>2.90 ± 2.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>54.32 ± 5.54</t>
+          <t>55.34 ± 7.81</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>70.82 ± 8.10</t>
+          <t>72.31 ± 12.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.63 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.54 ± 0.69</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>37.55 ± 1.44</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>48.86 ± 1.00</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1746,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.28 ± 0.07</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.64 ± 1.81</t>
+          <t>2.62 ± 1.73</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>51.88 ± 5.11</t>
+          <t>50.29 ± 9.73</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>67.65 ± 7.66</t>
+          <t>65.68 ± 13.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.76 ± 0.03</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.61 ± 0.38</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>29.81 ± 3.29</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>38.73 ± 3.33</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1798,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.27 ± 0.07</t>
+          <t>0.28 ± 0.11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.30 ± 1.65</t>
+          <t>2.11 ± 0.99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>51.99 ± 3.57</t>
+          <t>50.88 ± 8.53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>67.76 ± 5.62</t>
+          <t>66.46 ± 12.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.24 ± 0.05</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4.42 ± 0.70</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>5.77 ± 1.06</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1850,42 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.27 ± 0.06</t>
+          <t>0.24 ± 0.13</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.77 ± 2.14</t>
+          <t>2.78 ± 2.05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>52.29 ± 4.63</t>
+          <t>52.21 ± 9.98</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>68.16 ± 6.96</t>
+          <t>68.21 ± 14.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1.74 ± 0.39</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>29.79 ± 1.75</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>38.76 ± 1.82</t>
         </is>
       </c>
     </row>
@@ -1342,22 +1902,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.33 ± 0.05</t>
+          <t>0.34 ± 0.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.52 ± 1.82</t>
+          <t>2.34 ± 1.36</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>49.84 ± 4.01</t>
+          <t>48.82 ± 9.65</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>64.97 ± 6.22</t>
+          <t>63.78 ± 13.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.87 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1.27 ± 0.20</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>22.01 ± 0.78</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>28.65 ± 0.84</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1954,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.71 ± 0.10</t>
+          <t>0.71 ± 0.09</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.80 ± 0.40</t>
+          <t>0.81 ± 0.40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>32.42 ± 4.92</t>
+          <t>32.72 ± 10.67</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>42.27 ± 6.83</t>
+          <t>42.78 ± 14.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.98 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.54 ± 0.15</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>8.95 ± 0.81</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>11.65 ± 1.14</t>
         </is>
       </c>
     </row>
@@ -1406,22 +2006,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.70 ± 0.08</t>
+          <t>0.71 ± 0.08</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.66 ± 0.27</t>
+          <t>0.67 ± 0.35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33.20 ± 4.27</t>
+          <t>32.49 ± 9.22</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>43.28 ± 6.11</t>
+          <t>42.40 ± 12.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.96 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.24 ± 0.05</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>12.33 ± 0.98</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>16.06 ± 1.51</t>
         </is>
       </c>
     </row>
@@ -1438,22 +2058,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.66 ± 0.13</t>
+          <t>0.68 ± 0.08</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.73 ± 0.12</t>
+          <t>0.68 ± 0.22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>35.11 ± 6.50</t>
+          <t>34.34 ± 10.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>45.77 ± 8.89</t>
+          <t>44.86 ± 13.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.74 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.74 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>31.57 ± 2.68</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>41.10 ± 3.49</t>
         </is>
       </c>
     </row>
@@ -1470,22 +2110,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.73 ± 0.07</t>
+          <t>0.70 ± 0.07</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.94 ± 0.61</t>
+          <t>0.92 ± 0.73</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>31.50 ± 4.10</t>
+          <t>33.48 ± 9.72</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>41.07 ± 5.89</t>
+          <t>43.79 ± 13.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.97 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.40 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>11.23 ± 1.02</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>14.61 ± 1.18</t>
         </is>
       </c>
     </row>
@@ -1507,17 +2167,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.18 ± 0.69</t>
+          <t>0.95 ± 0.49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>34.16 ± 4.46</t>
+          <t>34.01 ± 8.77</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>44.54 ± 6.43</t>
+          <t>44.42 ± 12.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.01 ± 0.00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.02 ± 0.00</t>
         </is>
       </c>
     </row>
@@ -1534,22 +2214,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.26 ± 0.03</t>
+          <t>0.18 ± 0.18</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.34 ± 2.95</t>
+          <t>4.02 ± 4.02</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>52.51 ± 4.25</t>
+          <t>53.50 ± 7.21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>68.44 ± 6.28</t>
+          <t>69.84 ± 11.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.39 ± 0.05</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3.13 ± 0.68</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>47.94 ± 1.44</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>62.39 ± 1.49</t>
         </is>
       </c>
     </row>
@@ -1566,22 +2266,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.70 ± 0.08</t>
+          <t>0.69 ± 0.05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.73 ± 0.37</t>
+          <t>0.80 ± 0.43</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>32.91 ± 4.67</t>
+          <t>33.77 ± 8.28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>42.91 ± 6.60</t>
+          <t>44.12 ± 11.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.91 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.49 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>18.22 ± 1.96</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>23.72 ± 2.50</t>
         </is>
       </c>
     </row>
@@ -1598,22 +2318,42 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.43 ± 0.33</t>
+          <t>0.63 ± 0.08</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.97 ± 0.38</t>
+          <t>1.36 ± 0.97</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>44.03 ± 11.08</t>
+          <t>36.81 ± 9.95</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>57.36 ± 14.53</t>
+          <t>48.16 ± 14.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.69 ± 0.06</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1.06 ± 0.40</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>33.93 ± 4.14</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>44.17 ± 5.43</t>
         </is>
       </c>
     </row>
@@ -1635,17 +2375,37 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.26 ± 0.86</t>
+          <t>1.25 ± 0.86</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>32.90 ± 4.01</t>
+          <t>32.44 ± 8.94</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>42.90 ± 5.84</t>
+          <t>42.38 ± 12.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.86 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.84 ± 0.12</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>22.72 ± 1.67</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>29.59 ± 2.29</t>
         </is>
       </c>
     </row>
@@ -1662,22 +2422,42 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.27 ± 0.09</t>
+          <t>0.34 ± 0.10</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.63 ± 2.37</t>
+          <t>1.60 ± 1.52</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>52.05 ± 3.77</t>
+          <t>49.21 ± 10.67</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>67.82 ± 5.53</t>
+          <t>64.29 ± 15.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.80 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.51 ± 0.31</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>27.31 ± 2.54</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>35.49 ± 2.58</t>
         </is>
       </c>
     </row>
@@ -1694,22 +2474,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.68 ± 0.09</t>
+          <t>0.72 ± 0.09</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.75 ± 0.31</t>
+          <t>0.65 ± 0.29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>33.86 ± 4.80</t>
+          <t>31.91 ± 9.21</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>44.13 ± 6.70</t>
+          <t>41.61 ± 12.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.15</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>17.22 ± 1.87</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>22.45 ± 2.89</t>
         </is>
       </c>
     </row>
@@ -1726,22 +2526,42 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.64 ± 0.09</t>
+          <t>0.68 ± 0.11</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.67 ± 0.27</t>
+          <t>0.68 ± 0.40</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>36.46 ± 3.70</t>
+          <t>33.98 ± 11.14</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>47.50 ± 5.04</t>
+          <t>44.41 ± 15.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.23 ± 0.06</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>5.85 ± 0.50</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>7.63 ± 0.83</t>
         </is>
       </c>
     </row>
@@ -1758,22 +2578,42 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.60 ± 0.10</t>
+          <t>0.62 ± 0.09</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.22 ± 0.80</t>
+          <t>1.20 ± 0.89</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>37.59 ± 5.04</t>
+          <t>36.55 ± 9.48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>49.00 ± 7.06</t>
+          <t>47.76 ± 13.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.85 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.72 ± 0.18</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>19.77 ± 1.63</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>25.74 ± 2.11</t>
         </is>
       </c>
     </row>
@@ -1790,22 +2630,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.73 ± 0.07</t>
+          <t>0.72 ± 0.06</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.92 ± 0.56</t>
+          <t>0.90 ± 0.61</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>31.66 ± 4.34</t>
+          <t>31.91 ± 9.29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>41.28 ± 6.20</t>
+          <t>41.71 ± 12.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.95 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.55 ± 0.09</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>13.72 ± 1.22</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>17.87 ± 1.58</t>
         </is>
       </c>
     </row>
@@ -1827,17 +2687,37 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.78 ± 0.39</t>
+          <t>0.82 ± 0.46</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>32.98 ± 4.47</t>
+          <t>33.42 ± 11.35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>42.98 ± 6.24</t>
+          <t>43.69 ± 15.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.98 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.57 ± 0.15</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>9.09 ± 0.80</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>11.84 ± 1.09</t>
         </is>
       </c>
     </row>
@@ -1859,17 +2739,37 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.66 ± 0.26</t>
+          <t>0.67 ± 0.34</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>33.51 ± 4.50</t>
+          <t>33.64 ± 9.71</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>43.69 ± 6.38</t>
+          <t>43.93 ± 13.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.96 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.23 ± 0.03</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>12.83 ± 1.16</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>16.71 ± 1.63</t>
         </is>
       </c>
     </row>
@@ -1886,22 +2786,42 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.66 ± 0.12</t>
+          <t>0.67 ± 0.06</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.79 ± 0.36</t>
+          <t>0.72 ± 0.16</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>35.10 ± 6.49</t>
+          <t>34.98 ± 9.85</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>45.77 ± 8.90</t>
+          <t>45.74 ± 13.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.74 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.13</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>31.10 ± 2.63</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>40.49 ± 3.43</t>
         </is>
       </c>
     </row>
@@ -1918,22 +2838,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.70 ± 0.08</t>
+          <t>0.71 ± 0.07</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.77 ± 0.31</t>
+          <t>0.78 ± 0.47</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>33.02 ± 4.41</t>
+          <t>32.58 ± 9.62</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>43.06 ± 6.29</t>
+          <t>42.58 ± 13.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.16 ± 0.02</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>3.60 ± 0.23</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>4.69 ± 0.35</t>
         </is>
       </c>
     </row>
@@ -1950,22 +2890,42 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.68 ± 0.07</t>
+          <t>0.67 ± 0.06</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.19 ± 0.70</t>
+          <t>0.94 ± 0.49</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>34.44 ± 4.54</t>
+          <t>35.06 ± 9.20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>44.91 ± 6.55</t>
+          <t>45.83 ± 12.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.01 ± 0.00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.01 ± 0.00</t>
         </is>
       </c>
     </row>
@@ -1982,22 +2942,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.27 ± 0.04</t>
+          <t>0.14 ± 0.26</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.21 ± 2.84</t>
+          <t>3.04 ± 3.06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>52.28 ± 4.28</t>
+          <t>54.17 ± 5.09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>68.14 ± 6.43</t>
+          <t>70.68 ± 8.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.55 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1.90 ± 0.59</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>41.05 ± 2.04</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>53.41 ± 1.93</t>
         </is>
       </c>
     </row>
@@ -2014,22 +2994,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.69 ± 0.08</t>
+          <t>0.69 ± 0.05</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.72 ± 0.36</t>
+          <t>0.75 ± 0.36</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>33.53 ± 4.66</t>
+          <t>33.88 ± 8.69</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>43.72 ± 6.59</t>
+          <t>44.27 ± 12.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.44 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>17.51 ± 1.93</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>22.79 ± 2.43</t>
         </is>
       </c>
     </row>
@@ -2046,22 +3046,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.55 ± 0.13</t>
+          <t>0.53 ± 0.07</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.61 ± 0.23</t>
+          <t>0.91 ± 0.32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>40.80 ± 6.94</t>
+          <t>41.53 ± 10.01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>53.23 ± 9.83</t>
+          <t>54.21 ± 13.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.62 ± 0.09</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.96 ± 0.40</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>37.61 ± 4.24</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>48.89 ± 4.77</t>
         </is>
       </c>
     </row>
@@ -2083,17 +3103,37 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.43 ± 1.02</t>
+          <t>1.44 ± 1.01</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>33.81 ± 3.91</t>
+          <t>33.70 ± 8.98</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>44.09 ± 5.79</t>
+          <t>44.03 ± 12.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.87 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.13</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>22.40 ± 1.68</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>29.16 ± 2.17</t>
         </is>
       </c>
     </row>
@@ -2110,22 +3150,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.25 ± 0.13</t>
+          <t>0.17 ± 0.17</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.10 ± 1.40</t>
+          <t>2.70 ± 2.53</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>52.69 ± 2.87</t>
+          <t>53.85 ± 7.88</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>68.63 ± 4.16</t>
+          <t>70.37 ± 12.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1.34 ± 0.63</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>36.03 ± 1.51</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>46.88 ± 1.16</t>
         </is>
       </c>
     </row>
@@ -2142,22 +3202,42 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.68 ± 0.09</t>
+          <t>0.70 ± 0.08</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.77 ± 0.35</t>
+          <t>0.65 ± 0.24</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>34.16 ± 4.74</t>
+          <t>32.83 ± 9.25</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>44.53 ± 6.70</t>
+          <t>42.84 ± 12.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.47 ± 0.19</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>17.43 ± 2.12</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>22.68 ± 2.63</t>
         </is>
       </c>
     </row>
@@ -2174,22 +3254,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.65 ± 0.11</t>
+          <t>0.66 ± 0.11</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.67 ± 0.29</t>
+          <t>0.66 ± 0.34</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>35.48 ± 3.88</t>
+          <t>35.21 ± 11.77</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>46.23 ± 5.39</t>
+          <t>46.08 ± 16.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.08 ± 0.02</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2.21 ± 0.36</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2.88 ± 0.48</t>
         </is>
       </c>
     </row>
@@ -2206,22 +3306,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.60 ± 0.09</t>
+          <t>0.59 ± 0.10</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.14 ± 0.71</t>
+          <t>1.17 ± 0.81</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>37.65 ± 4.64</t>
+          <t>37.90 ± 9.28</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>49.08 ± 6.60</t>
+          <t>49.52 ± 13.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.85 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.65 ± 0.20</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>19.24 ± 1.56</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>25.04 ± 1.84</t>
         </is>
       </c>
     </row>
@@ -2243,17 +3363,37 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.91 ± 0.51</t>
+          <t>0.93 ± 0.56</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>32.16 ± 4.17</t>
+          <t>32.09 ± 9.61</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>41.94 ± 6.01</t>
+          <t>41.94 ± 13.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.96 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.51 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>11.68 ± 0.96</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>15.20 ± 1.24</t>
         </is>
       </c>
     </row>

--- a/figures_and_tables/table_performance_CS.xlsx
+++ b/figures_and_tables/table_performance_CS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,47 +701,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.29 ± 0.14</t>
+          <t>0.23 ± 0.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.14 ± 0.94</t>
+          <t>3.22 ± 2.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.49 ± 10.45</t>
+          <t>53.04 ± 12.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>66.00 ± 15.46</t>
+          <t>69.23 ± 18.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.93 ± 0.00</t>
+          <t>0.38 ± 0.30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.75 ± 0.18</t>
+          <t>2.75 ± 1.47</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16.07 ± 0.50</t>
+          <t>47.72 ± 14.51</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20.92 ± 0.64</t>
+          <t>61.59 ± 17.37</t>
         </is>
       </c>
     </row>
@@ -753,47 +753,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.16 ± 0.21</t>
+          <t>0.29 ± 0.14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.88 ± 3.82</t>
+          <t>2.14 ± 0.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>53.86 ± 6.93</t>
+          <t>50.49 ± 10.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70.33 ± 10.98</t>
+          <t>66.00 ± 15.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.41 ± 0.05</t>
+          <t>0.93 ± 0.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.92 ± 0.72</t>
+          <t>0.75 ± 0.18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>47.01 ± 1.27</t>
+          <t>16.07 ± 0.50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>61.17 ± 0.89</t>
+          <t>20.92 ± 0.64</t>
         </is>
       </c>
     </row>
@@ -805,47 +805,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.31 ± 0.11</t>
+          <t>0.16 ± 0.21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.74 ± 0.61</t>
+          <t>3.88 ± 3.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>49.70 ± 9.38</t>
+          <t>53.86 ± 6.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>64.87 ± 13.34</t>
+          <t>70.33 ± 10.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.83 ± 0.01</t>
+          <t>0.41 ± 0.05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.93 ± 0.16</t>
+          <t>2.92 ± 0.72</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25.18 ± 1.33</t>
+          <t>47.01 ± 1.27</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>32.78 ± 1.56</t>
+          <t>61.17 ± 0.89</t>
         </is>
       </c>
     </row>
@@ -857,47 +857,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.07 ± 0.21</t>
+          <t>0.31 ± 0.11</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.82 ± 4.07</t>
+          <t>1.74 ± 0.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>58.36 ± 14.99</t>
+          <t>49.70 ± 9.38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>76.36 ± 21.34</t>
+          <t>64.87 ± 13.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.18 ± 0.03</t>
+          <t>0.83 ± 0.01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.57 ± 0.77</t>
+          <t>0.93 ± 0.16</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>55.66 ± 3.31</t>
+          <t>25.18 ± 1.33</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>72.42 ± 3.71</t>
+          <t>32.78 ± 1.56</t>
         </is>
       </c>
     </row>
@@ -909,47 +909,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.34 ± 0.07</t>
+          <t>0.07 ± 0.21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.65 ± 1.86</t>
+          <t>3.82 ± 4.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>49.24 ± 10.61</t>
+          <t>58.36 ± 14.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.34 ± 15.10</t>
+          <t>76.36 ± 21.34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.69 ± 0.01</t>
+          <t>0.18 ± 0.03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.74 ± 0.23</t>
+          <t>3.57 ± 0.77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>33.95 ± 1.29</t>
+          <t>55.66 ± 3.31</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>44.19 ± 1.59</t>
+          <t>72.42 ± 3.71</t>
         </is>
       </c>
     </row>
@@ -961,47 +961,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.08 ± 0.25</t>
+          <t>0.34 ± 0.07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.46 ± 3.68</t>
+          <t>2.65 ± 1.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>56.50 ± 6.91</t>
+          <t>49.24 ± 10.61</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>73.76 ± 11.13</t>
+          <t>64.34 ± 15.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.48 ± 0.04</t>
+          <t>0.69 ± 0.01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.43 ± 0.76</t>
+          <t>1.74 ± 0.23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>44.19 ± 1.39</t>
+          <t>33.95 ± 1.29</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>57.51 ± 1.30</t>
+          <t>44.19 ± 1.59</t>
         </is>
       </c>
     </row>
@@ -1013,47 +1013,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.33 ± 0.08</t>
+          <t>0.08 ± 0.25</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.38 ± 1.59</t>
+          <t>3.46 ± 3.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49.42 ± 9.83</t>
+          <t>56.50 ± 6.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>64.53 ± 14.03</t>
+          <t>73.76 ± 11.13</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.76 ± 0.03</t>
+          <t>0.48 ± 0.04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.57 ± 0.30</t>
+          <t>2.43 ± 0.76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>30.29 ± 2.63</t>
+          <t>44.19 ± 1.39</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>39.38 ± 2.56</t>
+          <t>57.51 ± 1.30</t>
         </is>
       </c>
     </row>
@@ -1065,47 +1065,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.30 ± 0.10</t>
+          <t>0.33 ± 0.08</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.40 ± 1.47</t>
+          <t>2.38 ± 1.59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50.03 ± 9.24</t>
+          <t>49.42 ± 9.83</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65.33 ± 13.41</t>
+          <t>64.53 ± 14.03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.00 ± 0.00</t>
+          <t>0.76 ± 0.03</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.16 ± 0.05</t>
+          <t>1.57 ± 0.30</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.15 ± 0.56</t>
+          <t>30.29 ± 2.63</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.11 ± 0.86</t>
+          <t>39.38 ± 2.56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.24 ± 0.13</t>
+          <t>0.30 ± 0.10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.84 ± 2.22</t>
+          <t>2.40 ± 1.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>52.02 ± 10.14</t>
+          <t>50.03 ± 9.24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67.96 ± 14.74</t>
+          <t>65.33 ± 13.41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.67 ± 0.02</t>
+          <t>1.00 ± 0.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.82 ± 0.39</t>
+          <t>0.16 ± 0.05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>31.28 ± 1.61</t>
+          <t>3.15 ± 0.56</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>40.71 ± 1.80</t>
+          <t>4.11 ± 0.86</t>
         </is>
       </c>
     </row>
@@ -1169,99 +1169,99 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>▸ Ensemble</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.35 ± 0.08</t>
+          <t>0.24 ± 0.13</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.36 ± 1.39</t>
+          <t>2.87 ± 2.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>48.63 ± 10.21</t>
+          <t>52.10 ± 10.33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>63.51 ± 14.48</t>
+          <t>68.06 ± 15.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.84 ± 0.01</t>
+          <t>0.65 ± 0.04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.38 ± 0.21</t>
+          <t>1.89 ± 0.48</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>24.37 ± 1.04</t>
+          <t>32.54 ± 2.60</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>31.72 ± 1.31</t>
+          <t>42.31 ± 2.99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Conf2</t>
+          <t>Conf1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.30 ± 0.06</t>
+          <t>0.34 ± 0.08</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.39 ± 1.43</t>
+          <t>2.52 ± 1.69</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>50.36 ± 10.53</t>
+          <t>48.91 ± 10.43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>65.80 ± 15.14</t>
+          <t>63.90 ± 14.83</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.93 ± 0.01</t>
+          <t>0.82 ± 0.01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.21 ± 0.27</t>
+          <t>1.55 ± 0.25</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16.24 ± 0.82</t>
+          <t>25.94 ± 1.39</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21.15 ± 1.13</t>
+          <t>33.75 ± 1.46</t>
         </is>
       </c>
     </row>
@@ -1273,47 +1273,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.31 ± 0.09</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.64 ± 1.86</t>
+          <t>2.39 ± 1.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>49.84 ± 8.97</t>
+          <t>50.36 ± 10.53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>65.07 ± 13.01</t>
+          <t>65.80 ± 15.14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.90 ± 0.01</t>
+          <t>0.93 ± 0.01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.02 ± 0.13</t>
+          <t>1.21 ± 0.27</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19.55 ± 0.62</t>
+          <t>16.24 ± 0.82</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25.45 ± 1.01</t>
+          <t>21.15 ± 1.13</t>
         </is>
       </c>
     </row>
@@ -1325,47 +1325,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.12 ± 0.10</t>
+          <t>0.31 ± 0.09</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.72 ± 3.20</t>
+          <t>2.64 ± 1.86</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>56.91 ± 13.32</t>
+          <t>49.84 ± 8.97</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>74.41 ± 19.04</t>
+          <t>65.07 ± 13.01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.20 ± 0.05</t>
+          <t>0.90 ± 0.01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3.74 ± 0.80</t>
+          <t>1.02 ± 0.13</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>54.99 ± 3.85</t>
+          <t>19.55 ± 0.62</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>71.52 ± 3.89</t>
+          <t>25.45 ± 1.01</t>
         </is>
       </c>
     </row>
@@ -1377,47 +1377,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.28 ± 0.14</t>
+          <t>0.12 ± 0.10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.48 ± 1.58</t>
+          <t>3.72 ± 3.20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>50.87 ± 9.38</t>
+          <t>56.91 ± 13.32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>66.44 ± 13.90</t>
+          <t>74.41 ± 19.04</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.90 ± 0.00</t>
+          <t>0.20 ± 0.05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.12 ± 0.21</t>
+          <t>3.74 ± 0.80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>19.03 ± 0.57</t>
+          <t>54.99 ± 3.85</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>24.77 ± 0.85</t>
+          <t>71.52 ± 3.89</t>
         </is>
       </c>
     </row>
@@ -1429,47 +1429,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.28 ± 0.12</t>
+          <t>0.28 ± 0.14</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.27 ± 1.18</t>
+          <t>2.48 ± 1.58</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>50.91 ± 9.97</t>
+          <t>50.87 ± 9.38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>66.51 ± 14.56</t>
+          <t>66.44 ± 13.90</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.93 ± 0.00</t>
+          <t>0.90 ± 0.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.01 ± 0.20</t>
+          <t>1.12 ± 0.21</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15.76 ± 0.83</t>
+          <t>19.03 ± 0.57</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20.50 ± 0.90</t>
+          <t>24.77 ± 0.85</t>
         </is>
       </c>
     </row>
@@ -1481,47 +1481,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.17 ± 0.23</t>
+          <t>0.27 ± 0.15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.41 ± 3.15</t>
+          <t>3.13 ± 1.86</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>53.46 ± 5.99</t>
+          <t>51.96 ± 14.93</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>69.79 ± 9.93</t>
+          <t>68.32 ± 20.91</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.44 ± 0.04</t>
+          <t>0.42 ± 0.18</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.55 ± 0.64</t>
+          <t>2.60 ± 0.80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>45.99 ± 1.17</t>
+          <t>46.36 ± 8.78</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>59.85 ± 0.56</t>
+          <t>60.53 ± 10.33</t>
         </is>
       </c>
     </row>
@@ -1533,47 +1533,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.33 ± 0.06</t>
+          <t>0.28 ± 0.12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.78 ± 0.62</t>
+          <t>2.27 ± 1.18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>49.37 ± 9.44</t>
+          <t>50.91 ± 9.97</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>64.47 ± 13.61</t>
+          <t>66.51 ± 14.56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.85 ± 0.00</t>
+          <t>0.93 ± 0.00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.96 ± 0.11</t>
+          <t>1.01 ± 0.20</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>24.13 ± 1.05</t>
+          <t>15.76 ± 0.83</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>31.40 ± 0.90</t>
+          <t>20.50 ± 0.90</t>
         </is>
       </c>
     </row>
@@ -1585,47 +1585,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.06 ± 0.30</t>
+          <t>0.17 ± 0.23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.26 ± 3.99</t>
+          <t>3.41 ± 3.15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>58.38 ± 15.62</t>
+          <t>53.46 ± 5.99</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>76.39 ± 21.88</t>
+          <t>69.79 ± 9.93</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.19 ± 0.08</t>
+          <t>0.44 ± 0.04</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.00 ± 0.94</t>
+          <t>2.55 ± 0.64</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>55.38 ± 5.39</t>
+          <t>45.99 ± 1.17</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>71.99 ± 5.78</t>
+          <t>59.85 ± 0.56</t>
         </is>
       </c>
     </row>
@@ -1637,47 +1637,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.32 ± 0.05</t>
+          <t>0.33 ± 0.06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.81 ± 1.99</t>
+          <t>1.78 ± 0.62</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>49.86 ± 10.48</t>
+          <t>49.37 ± 9.44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>65.16 ± 15.10</t>
+          <t>64.47 ± 13.61</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.68 ± 0.01</t>
+          <t>0.85 ± 0.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.86 ± 0.25</t>
+          <t>0.96 ± 0.11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>34.65 ± 1.31</t>
+          <t>24.13 ± 1.05</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>45.10 ± 1.42</t>
+          <t>31.40 ± 0.90</t>
         </is>
       </c>
     </row>
@@ -1689,47 +1689,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.13 ± 0.19</t>
+          <t>0.06 ± 0.30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.90 ± 2.84</t>
+          <t>4.26 ± 3.99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>55.34 ± 7.81</t>
+          <t>58.38 ± 15.62</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>72.31 ± 12.45</t>
+          <t>76.39 ± 21.88</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.63 ± 0.02</t>
+          <t>0.19 ± 0.08</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.54 ± 0.69</t>
+          <t>4.00 ± 0.94</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>37.55 ± 1.44</t>
+          <t>55.38 ± 5.39</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>48.86 ± 1.00</t>
+          <t>71.99 ± 5.78</t>
         </is>
       </c>
     </row>
@@ -1741,47 +1741,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.30 ± 0.06</t>
+          <t>0.32 ± 0.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.62 ± 1.73</t>
+          <t>2.81 ± 1.99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>50.29 ± 9.73</t>
+          <t>49.86 ± 10.48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>65.68 ± 13.99</t>
+          <t>65.16 ± 15.10</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.76 ± 0.03</t>
+          <t>0.68 ± 0.01</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.61 ± 0.38</t>
+          <t>1.86 ± 0.25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>29.81 ± 3.29</t>
+          <t>34.65 ± 1.31</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>38.73 ± 3.33</t>
+          <t>45.10 ± 1.42</t>
         </is>
       </c>
     </row>
@@ -1793,47 +1793,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.28 ± 0.11</t>
+          <t>0.13 ± 0.19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.11 ± 0.99</t>
+          <t>2.90 ± 2.84</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>50.88 ± 8.53</t>
+          <t>55.34 ± 7.81</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>66.46 ± 12.78</t>
+          <t>72.31 ± 12.45</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.99 ± 0.00</t>
+          <t>0.63 ± 0.02</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.24 ± 0.05</t>
+          <t>1.54 ± 0.69</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.42 ± 0.70</t>
+          <t>37.55 ± 1.44</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5.77 ± 1.06</t>
+          <t>48.86 ± 1.00</t>
         </is>
       </c>
     </row>
@@ -1845,47 +1845,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.24 ± 0.13</t>
+          <t>0.30 ± 0.06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.78 ± 2.05</t>
+          <t>2.62 ± 1.73</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>52.21 ± 9.98</t>
+          <t>50.29 ± 9.73</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>68.21 ± 14.62</t>
+          <t>65.68 ± 13.99</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.70 ± 0.02</t>
+          <t>0.76 ± 0.03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.74 ± 0.39</t>
+          <t>1.61 ± 0.38</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>29.79 ± 1.75</t>
+          <t>29.81 ± 3.29</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>38.76 ± 1.82</t>
+          <t>38.73 ± 3.33</t>
         </is>
       </c>
     </row>
@@ -1897,151 +1897,151 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>▸ Ensemble</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.34 ± 0.05</t>
+          <t>0.28 ± 0.11</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.34 ± 1.36</t>
+          <t>2.11 ± 0.99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>48.82 ± 9.65</t>
+          <t>50.88 ± 8.53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>63.78 ± 13.93</t>
+          <t>66.46 ± 12.78</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.87 ± 0.01</t>
+          <t>0.99 ± 0.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.27 ± 0.20</t>
+          <t>0.24 ± 0.05</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>22.01 ± 0.78</t>
+          <t>4.42 ± 0.70</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28.65 ± 0.84</t>
+          <t>5.77 ± 1.06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.71 ± 0.09</t>
+          <t>0.24 ± 0.13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.81 ± 0.40</t>
+          <t>2.81 ± 2.03</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>32.72 ± 10.67</t>
+          <t>52.19 ± 10.36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>42.78 ± 14.66</t>
+          <t>68.22 ± 15.10</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.98 ± 0.00</t>
+          <t>0.68 ± 0.03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.54 ± 0.15</t>
+          <t>1.80 ± 0.42</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>8.95 ± 0.81</t>
+          <t>31.07 ± 2.29</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>11.65 ± 1.14</t>
+          <t>40.43 ± 2.47</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Conf3</t>
+          <t>Conf2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.71 ± 0.08</t>
+          <t>0.33 ± 0.05</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.67 ± 0.35</t>
+          <t>2.55 ± 1.66</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>32.49 ± 9.22</t>
+          <t>49.36 ± 9.86</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>42.40 ± 12.44</t>
+          <t>64.49 ± 14.24</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.96 ± 0.01</t>
+          <t>0.85 ± 0.01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.24 ± 0.05</t>
+          <t>1.43 ± 0.25</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.33 ± 0.98</t>
+          <t>23.67 ± 1.34</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16.06 ± 1.51</t>
+          <t>30.80 ± 1.24</t>
         </is>
       </c>
     </row>
@@ -2053,47 +2053,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.68 ± 0.08</t>
+          <t>0.71 ± 0.09</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.68 ± 0.22</t>
+          <t>0.81 ± 0.40</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>34.34 ± 10.00</t>
+          <t>32.72 ± 10.67</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>44.86 ± 13.71</t>
+          <t>42.78 ± 14.66</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.74 ± 0.02</t>
+          <t>0.98 ± 0.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.74 ± 0.09</t>
+          <t>0.54 ± 0.15</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>31.57 ± 2.68</t>
+          <t>8.95 ± 0.81</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>41.10 ± 3.49</t>
+          <t>11.65 ± 1.14</t>
         </is>
       </c>
     </row>
@@ -2105,47 +2105,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.70 ± 0.07</t>
+          <t>0.71 ± 0.08</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.92 ± 0.73</t>
+          <t>0.67 ± 0.35</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33.48 ± 9.72</t>
+          <t>32.49 ± 9.22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>43.79 ± 13.72</t>
+          <t>42.40 ± 12.44</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.97 ± 0.00</t>
+          <t>0.96 ± 0.01</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.40 ± 0.08</t>
+          <t>0.24 ± 0.05</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11.23 ± 1.02</t>
+          <t>12.33 ± 0.98</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>14.61 ± 1.18</t>
+          <t>16.06 ± 1.51</t>
         </is>
       </c>
     </row>
@@ -2157,47 +2157,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.68 ± 0.07</t>
+          <t>0.68 ± 0.08</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.95 ± 0.49</t>
+          <t>0.68 ± 0.22</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>34.01 ± 8.77</t>
+          <t>34.34 ± 10.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>44.42 ± 12.21</t>
+          <t>44.86 ± 13.71</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.00 ± 0.00</t>
+          <t>0.74 ± 0.02</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.00 ± 0.00</t>
+          <t>0.74 ± 0.09</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.01 ± 0.00</t>
+          <t>31.57 ± 2.68</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.02 ± 0.00</t>
+          <t>41.10 ± 3.49</t>
         </is>
       </c>
     </row>
@@ -2209,47 +2209,47 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.18 ± 0.18</t>
+          <t>0.70 ± 0.07</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.02 ± 4.02</t>
+          <t>0.92 ± 0.73</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>53.50 ± 7.21</t>
+          <t>33.48 ± 9.72</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>69.84 ± 11.22</t>
+          <t>43.79 ± 13.72</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.39 ± 0.05</t>
+          <t>0.97 ± 0.00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.13 ± 0.68</t>
+          <t>0.40 ± 0.08</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>47.94 ± 1.44</t>
+          <t>11.23 ± 1.02</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>62.39 ± 1.49</t>
+          <t>14.61 ± 1.18</t>
         </is>
       </c>
     </row>
@@ -2261,47 +2261,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.69 ± 0.05</t>
+          <t>0.22 ± 0.12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.80 ± 0.43</t>
+          <t>2.44 ± 1.79</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>33.77 ± 8.28</t>
+          <t>53.59 ± 13.78</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>44.12 ± 11.63</t>
+          <t>70.46 ± 20.03</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.91 ± 0.01</t>
+          <t>0.55 ± 0.36</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.49 ± 0.09</t>
+          <t>1.67 ± 0.96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18.22 ± 1.96</t>
+          <t>38.34 ± 19.05</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>23.72 ± 2.50</t>
+          <t>50.16 ± 24.94</t>
         </is>
       </c>
     </row>
@@ -2313,47 +2313,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.63 ± 0.08</t>
+          <t>0.68 ± 0.07</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.36 ± 0.97</t>
+          <t>0.95 ± 0.49</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>36.81 ± 9.95</t>
+          <t>34.01 ± 8.77</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>48.16 ± 14.06</t>
+          <t>44.42 ± 12.21</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.69 ± 0.06</t>
+          <t>1.00 ± 0.00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.06 ± 0.40</t>
+          <t>0.00 ± 0.00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>33.93 ± 4.14</t>
+          <t>0.01 ± 0.00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>44.17 ± 5.43</t>
+          <t>0.02 ± 0.00</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.71 ± 0.06</t>
+          <t>0.18 ± 0.18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.25 ± 0.86</t>
+          <t>4.02 ± 4.02</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>32.44 ± 8.94</t>
+          <t>53.50 ± 7.21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>42.38 ± 12.29</t>
+          <t>69.84 ± 11.22</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.86 ± 0.01</t>
+          <t>0.39 ± 0.05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.84 ± 0.12</t>
+          <t>3.13 ± 0.68</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>22.72 ± 1.67</t>
+          <t>47.94 ± 1.44</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>29.59 ± 2.29</t>
+          <t>62.39 ± 1.49</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.34 ± 0.10</t>
+          <t>0.69 ± 0.05</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.60 ± 1.52</t>
+          <t>0.80 ± 0.43</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>49.21 ± 10.67</t>
+          <t>33.77 ± 8.28</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>64.29 ± 15.16</t>
+          <t>44.12 ± 11.63</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.80 ± 0.02</t>
+          <t>0.91 ± 0.01</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.51 ± 0.31</t>
+          <t>0.49 ± 0.09</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>27.31 ± 2.54</t>
+          <t>18.22 ± 1.96</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>35.49 ± 2.58</t>
+          <t>23.72 ± 2.50</t>
         </is>
       </c>
     </row>
@@ -2469,47 +2469,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.72 ± 0.09</t>
+          <t>0.63 ± 0.08</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.65 ± 0.29</t>
+          <t>1.36 ± 0.97</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>31.91 ± 9.21</t>
+          <t>36.81 ± 9.95</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>41.61 ± 12.24</t>
+          <t>48.16 ± 14.06</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.92 ± 0.02</t>
+          <t>0.69 ± 0.06</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.44 ± 0.15</t>
+          <t>1.06 ± 0.40</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>17.22 ± 1.87</t>
+          <t>33.93 ± 4.14</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>22.45 ± 2.89</t>
+          <t>44.17 ± 5.43</t>
         </is>
       </c>
     </row>
@@ -2521,47 +2521,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.68 ± 0.11</t>
+          <t>0.71 ± 0.06</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.68 ± 0.40</t>
+          <t>1.25 ± 0.86</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>33.98 ± 11.14</t>
+          <t>32.44 ± 8.94</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>44.41 ± 15.16</t>
+          <t>42.38 ± 12.29</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.99 ± 0.00</t>
+          <t>0.86 ± 0.01</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.23 ± 0.06</t>
+          <t>0.84 ± 0.12</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.85 ± 0.50</t>
+          <t>22.72 ± 1.67</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>7.63 ± 0.83</t>
+          <t>29.59 ± 2.29</t>
         </is>
       </c>
     </row>
@@ -2573,47 +2573,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>SVR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.62 ± 0.09</t>
+          <t>0.34 ± 0.10</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.20 ± 0.89</t>
+          <t>1.60 ± 1.52</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>36.55 ± 9.48</t>
+          <t>49.21 ± 10.67</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>47.76 ± 13.21</t>
+          <t>64.29 ± 15.16</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.85 ± 0.02</t>
+          <t>0.80 ± 0.02</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.72 ± 0.18</t>
+          <t>0.51 ± 0.31</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>19.77 ± 1.63</t>
+          <t>27.31 ± 2.54</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>25.74 ± 2.11</t>
+          <t>35.49 ± 2.58</t>
         </is>
       </c>
     </row>
@@ -2625,203 +2625,203 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>▸ Ensemble</t>
+          <t>StackEns</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.72 ± 0.06</t>
+          <t>0.72 ± 0.09</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.90 ± 0.61</t>
+          <t>0.65 ± 0.29</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>31.91 ± 9.29</t>
+          <t>31.91 ± 9.21</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>41.71 ± 12.88</t>
+          <t>41.61 ± 12.24</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.95 ± 0.01</t>
+          <t>0.92 ± 0.02</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.55 ± 0.09</t>
+          <t>0.44 ± 0.15</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>13.72 ± 1.22</t>
+          <t>17.22 ± 1.87</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>17.87 ± 1.58</t>
+          <t>22.45 ± 2.89</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.70 ± 0.10</t>
+          <t>0.68 ± 0.11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.82 ± 0.46</t>
+          <t>0.68 ± 0.40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>33.42 ± 11.35</t>
+          <t>33.98 ± 11.14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>43.69 ± 15.41</t>
+          <t>44.41 ± 15.16</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.98 ± 0.00</t>
+          <t>0.99 ± 0.00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.57 ± 0.15</t>
+          <t>0.23 ± 0.06</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9.09 ± 0.80</t>
+          <t>5.85 ± 0.50</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>11.84 ± 1.09</t>
+          <t>7.63 ± 0.83</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BaggedDT</t>
+          <t>▸ Average</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.69 ± 0.08</t>
+          <t>0.59 ± 0.09</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.67 ± 0.34</t>
+          <t>1.30 ± 0.96</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>33.64 ± 9.71</t>
+          <t>37.86 ± 9.81</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>43.93 ± 13.27</t>
+          <t>49.50 ± 13.73</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.96 ± 0.01</t>
+          <t>0.83 ± 0.04</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.23 ± 0.03</t>
+          <t>0.79 ± 0.24</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12.83 ± 1.16</t>
+          <t>21.20 ± 2.97</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>16.71 ± 1.63</t>
+          <t>27.62 ± 3.87</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Conf3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BayesianNN</t>
+          <t>▸ Ensemble</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.67 ± 0.06</t>
+          <t>0.73 ± 0.07</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.72 ± 0.16</t>
+          <t>0.86 ± 0.58</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>34.98 ± 9.85</t>
+          <t>31.55 ± 9.35</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>45.74 ± 13.79</t>
+          <t>41.22 ± 12.82</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.74 ± 0.02</t>
+          <t>0.95 ± 0.01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.77 ± 0.13</t>
+          <t>0.54 ± 0.11</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>31.10 ± 2.63</t>
+          <t>13.58 ± 1.11</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>40.49 ± 3.43</t>
+          <t>17.69 ± 1.59</t>
         </is>
       </c>
     </row>
@@ -2833,47 +2833,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.71 ± 0.07</t>
+          <t>0.70 ± 0.10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.78 ± 0.47</t>
+          <t>0.82 ± 0.46</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>32.58 ± 9.62</t>
+          <t>33.42 ± 11.35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>42.58 ± 13.30</t>
+          <t>43.69 ± 15.41</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.00 ± 0.00</t>
+          <t>0.98 ± 0.00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.16 ± 0.02</t>
+          <t>0.57 ± 0.15</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.60 ± 0.23</t>
+          <t>9.09 ± 0.80</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.69 ± 0.35</t>
+          <t>11.84 ± 1.09</t>
         </is>
       </c>
     </row>
@@ -2885,47 +2885,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GBDT</t>
+          <t>BaggedDT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.67 ± 0.06</t>
+          <t>0.69 ± 0.08</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.94 ± 0.49</t>
+          <t>0.67 ± 0.34</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>35.06 ± 9.20</t>
+          <t>33.64 ± 9.71</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>45.83 ± 12.99</t>
+          <t>43.93 ± 13.27</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.00 ± 0.00</t>
+          <t>0.96 ± 0.01</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.00 ± 0.00</t>
+          <t>0.23 ± 0.03</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.01 ± 0.00</t>
+          <t>12.83 ± 1.16</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.01 ± 0.00</t>
+          <t>16.71 ± 1.63</t>
         </is>
       </c>
     </row>
@@ -2937,47 +2937,47 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>BayesianNN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.14 ± 0.26</t>
+          <t>0.67 ± 0.06</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.04 ± 3.06</t>
+          <t>0.72 ± 0.16</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>54.17 ± 5.09</t>
+          <t>34.98 ± 9.85</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>70.68 ± 8.61</t>
+          <t>45.74 ± 13.79</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.55 ± 0.01</t>
+          <t>0.74 ± 0.02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.90 ± 0.59</t>
+          <t>0.77 ± 0.13</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>41.05 ± 2.04</t>
+          <t>31.10 ± 2.63</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>53.41 ± 1.93</t>
+          <t>40.49 ± 3.43</t>
         </is>
       </c>
     </row>
@@ -2989,47 +2989,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.69 ± 0.05</t>
+          <t>0.71 ± 0.07</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.75 ± 0.36</t>
+          <t>0.78 ± 0.47</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>33.88 ± 8.69</t>
+          <t>32.58 ± 9.62</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>44.27 ± 12.15</t>
+          <t>42.58 ± 13.30</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.92 ± 0.01</t>
+          <t>1.00 ± 0.00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.44 ± 0.08</t>
+          <t>0.16 ± 0.02</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>17.51 ± 1.93</t>
+          <t>3.60 ± 0.23</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>22.79 ± 2.43</t>
+          <t>4.69 ± 0.35</t>
         </is>
       </c>
     </row>
@@ -3041,47 +3041,47 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>DeepCNN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.53 ± 0.07</t>
+          <t>0.30 ± 0.11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.91 ± 0.32</t>
+          <t>2.87 ± 1.88</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>41.53 ± 10.01</t>
+          <t>50.87 ± 12.84</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>54.21 ± 13.72</t>
+          <t>66.45 ± 18.49</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.62 ± 0.09</t>
+          <t>0.32 ± 0.11</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.96 ± 0.40</t>
+          <t>2.80 ± 0.87</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>37.61 ± 4.24</t>
+          <t>50.48 ± 4.22</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>48.89 ± 4.77</t>
+          <t>65.63 ± 6.24</t>
         </is>
       </c>
     </row>
@@ -3093,47 +3093,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GBDT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.69 ± 0.05</t>
+          <t>0.67 ± 0.06</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.44 ± 1.01</t>
+          <t>0.94 ± 0.49</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>33.70 ± 8.98</t>
+          <t>35.06 ± 9.20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>44.03 ± 12.43</t>
+          <t>45.83 ± 12.99</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.87 ± 0.01</t>
+          <t>1.00 ± 0.00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.92 ± 0.13</t>
+          <t>0.00 ± 0.00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>22.40 ± 1.68</t>
+          <t>0.01 ± 0.00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>29.16 ± 2.17</t>
+          <t>0.01 ± 0.00</t>
         </is>
       </c>
     </row>
@@ -3145,47 +3145,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SVR</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.17 ± 0.17</t>
+          <t>0.14 ± 0.26</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.70 ± 2.53</t>
+          <t>3.04 ± 3.06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>53.85 ± 7.88</t>
+          <t>54.17 ± 5.09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>70.37 ± 12.47</t>
+          <t>70.68 ± 8.61</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.66 ± 0.01</t>
+          <t>0.55 ± 0.01</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.34 ± 0.63</t>
+          <t>1.90 ± 0.59</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>36.03 ± 1.51</t>
+          <t>41.05 ± 2.04</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>46.88 ± 1.16</t>
+          <t>53.41 ± 1.93</t>
         </is>
       </c>
     </row>
@@ -3197,47 +3197,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>StackEns</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.70 ± 0.08</t>
+          <t>0.69 ± 0.05</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.65 ± 0.24</t>
+          <t>0.75 ± 0.36</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>32.83 ± 9.25</t>
+          <t>33.88 ± 8.69</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>42.84 ± 12.42</t>
+          <t>44.27 ± 12.15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.92 ± 0.02</t>
+          <t>0.92 ± 0.01</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.47 ± 0.19</t>
+          <t>0.44 ± 0.08</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>17.43 ± 2.12</t>
+          <t>17.51 ± 1.93</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>22.68 ± 2.63</t>
+          <t>22.79 ± 2.43</t>
         </is>
       </c>
     </row>
@@ -3249,47 +3249,47 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.66 ± 0.11</t>
+          <t>0.53 ± 0.07</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.66 ± 0.34</t>
+          <t>0.91 ± 0.32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>35.21 ± 11.77</t>
+          <t>41.53 ± 10.01</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>46.08 ± 16.35</t>
+          <t>54.21 ± 13.72</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.00 ± 0.00</t>
+          <t>0.62 ± 0.09</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.08 ± 0.02</t>
+          <t>0.96 ± 0.40</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.21 ± 0.36</t>
+          <t>37.61 ± 4.24</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2.88 ± 0.48</t>
+          <t>48.89 ± 4.77</t>
         </is>
       </c>
     </row>
@@ -3301,47 +3301,47 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>▸ Average</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.59 ± 0.10</t>
+          <t>0.69 ± 0.05</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.17 ± 0.81</t>
+          <t>1.44 ± 1.01</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>37.90 ± 9.28</t>
+          <t>33.70 ± 8.98</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>49.52 ± 13.08</t>
+          <t>44.03 ± 12.43</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.85 ± 0.02</t>
+          <t>0.87 ± 0.01</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.65 ± 0.20</t>
+          <t>0.92 ± 0.13</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>19.24 ± 1.56</t>
+          <t>22.40 ± 1.68</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>25.04 ± 1.84</t>
+          <t>29.16 ± 2.17</t>
         </is>
       </c>
     </row>
@@ -3353,47 +3353,255 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.17 ± 0.17</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.70 ± 2.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>53.85 ± 7.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>70.37 ± 12.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.01</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1.34 ± 0.63</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>36.03 ± 1.51</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>46.88 ± 1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>StackEns</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.70 ± 0.08</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.65 ± 0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.83 ± 9.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>42.84 ± 12.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.92 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.47 ± 0.19</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>17.43 ± 2.12</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>22.68 ± 2.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.11</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.66 ± 0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>35.21 ± 11.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>46.08 ± 16.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1.00 ± 0.00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0.08 ± 0.02</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2.21 ± 0.36</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2.88 ± 0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>▸ Average</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.56 ± 0.10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30 ± 0.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>38.90 ± 9.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>50.82 ± 13.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.81 ± 0.02</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.82 ± 0.25</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>21.64 ± 1.76</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>28.16 ± 2.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Conf4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>▸ Ensemble</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>0.72 ± 0.07</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.93 ± 0.56</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>32.09 ± 9.61</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>41.94 ± 13.19</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.90 ± 0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>31.89 ± 9.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>41.66 ± 13.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>0.96 ± 0.00</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0.51 ± 0.08</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>11.68 ± 0.96</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>15.20 ± 1.24</t>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.52 ± 0.11</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>11.82 ± 1.00</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>15.38 ± 1.28</t>
         </is>
       </c>
     </row>
